--- a/biology/Zoologie/Bathynomus/Bathynomus.xlsx
+++ b/biology/Zoologie/Bathynomus/Bathynomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathynomus est un genre d'isopodes marins abyssaux de très grande taille. Ils font partie des crustacés, un sous-embranchement des arthropodes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bathynomes sont un cas de gigantisme abyssal. Ils se présentent sous la forme de très gros isopodes (d'allure proche des cloportes) de couleur brun à gris-violacé, pouvant mesurer plusieurs dizaines de centimètres. Leur exosquelette est composé de segments articulés, d'une tête et d'un telson, disposant chacun d'une paire de pattes. La tête est surmontée de deux paires d'antennes et ses mâchoires sont équipées de quatre paires de mandibules.
 L'espèce Bathynomus giganteus mesure 35 centimètres en moyenne, pour une masse de 1,4 kg, et peut atteindre jusqu'à 50 cm pour 1,7 kg, ce qui en fait le plus grand des isopodes.
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 juillet 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 juillet 2014) :
 Bathynomus affinis Richardson, 1910
 Bathynomus brucei Lowry &amp; Dempsey, 2006
 Bathynomus bruscai Lowry &amp; Dempsey, 2006
@@ -562,7 +578,7 @@
 Bathynomus obtusus Magalhaes &amp; Young, 2003
 Bathynomus pelor Bruce, 1986
 Bathynomus propinquus Richardson, 1910
-Bathynomus raksasa 2018[3]
+Bathynomus raksasa 2018
 Bathynomus richeri Lowry &amp; Dempsey, 2006
 			Bathynomus doederleinii
 			Bathynomus giganteus
